--- a/Misc/SCD_Layout.xlsx
+++ b/Misc/SCD_Layout.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4BD07E6-9A7C-4B2F-9357-FDF905F13151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61733C5B-5745-4E24-9A07-FAE69B796DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="42210" yWindow="3270" windowWidth="28780" windowHeight="15580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Event" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="200">
   <si>
     <t>Unknown</t>
   </si>
@@ -213,9 +213,6 @@
     <t>Unknown3</t>
   </si>
   <si>
-    <t>VarType</t>
-  </si>
-  <si>
     <t>Operation</t>
   </si>
   <si>
@@ -237,9 +234,6 @@
     <t>Variable_Check/Variable_Check_Alt</t>
   </si>
   <si>
-    <t>Operation*</t>
-  </si>
-  <si>
     <t>BloodOnDeath</t>
   </si>
   <si>
@@ -547,9 +541,6 @@
   </si>
   <si>
     <t>EQU</t>
-  </si>
-  <si>
-    <t>ObjectID¹</t>
   </si>
   <si>
     <t>All²</t>
@@ -678,6 +669,18 @@
   </si>
   <si>
     <t>though that could be the type for the out of range values on a few of them</t>
+  </si>
+  <si>
+    <t>Object¹</t>
+  </si>
+  <si>
+    <t>VariableType</t>
+  </si>
+  <si>
+    <t>Operator</t>
+  </si>
+  <si>
+    <t>Operator*</t>
   </si>
 </sst>
 </file>
@@ -745,7 +748,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
@@ -753,9 +756,6 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -988,8 +988,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1E1E0A3D-39A7-4637-9B2E-6CFDABED7B8C}" name="ColumnList" displayName="ColumnList" ref="A1:R22" totalsRowShown="0">
-  <autoFilter ref="A1:R22" xr:uid="{1E1E0A3D-39A7-4637-9B2E-6CFDABED7B8C}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1E1E0A3D-39A7-4637-9B2E-6CFDABED7B8C}" name="ColumnList" displayName="ColumnList" ref="A1:R23" totalsRowShown="0">
+  <autoFilter ref="A1:R23" xr:uid="{1E1E0A3D-39A7-4637-9B2E-6CFDABED7B8C}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1076,8 +1076,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{DA4450BC-89B7-47D0-B53C-68516258628D}" name="TargetType" displayName="TargetType" ref="A26:B30" totalsRowShown="0">
-  <autoFilter ref="A26:B30" xr:uid="{DA4450BC-89B7-47D0-B53C-68516258628D}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{DA4450BC-89B7-47D0-B53C-68516258628D}" name="TargetType" displayName="TargetType" ref="A26:B31" totalsRowShown="0">
+  <autoFilter ref="A26:B31" xr:uid="{DA4450BC-89B7-47D0-B53C-68516258628D}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
@@ -1104,8 +1104,8 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{D0D3EEDD-208E-4E75-AAF6-23290E91084F}" name="OperatorSet" displayName="OperatorSet" ref="J1:K9" totalsRowShown="0">
-  <autoFilter ref="J1:K9" xr:uid="{D0D3EEDD-208E-4E75-AAF6-23290E91084F}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{D0D3EEDD-208E-4E75-AAF6-23290E91084F}" name="OperatorSet" displayName="OperatorSet" ref="J1:K10" totalsRowShown="0">
+  <autoFilter ref="J1:K10" xr:uid="{D0D3EEDD-208E-4E75-AAF6-23290E91084F}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
@@ -1118,8 +1118,8 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{EAFDFA12-197E-4C07-BF59-7407E91EA676}" name="OperatorCheck" displayName="OperatorCheck" ref="J12:K20" totalsRowShown="0">
-  <autoFilter ref="J12:K20" xr:uid="{EAFDFA12-197E-4C07-BF59-7407E91EA676}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{EAFDFA12-197E-4C07-BF59-7407E91EA676}" name="OperatorCheck" displayName="OperatorCheck" ref="J12:K21" totalsRowShown="0">
+  <autoFilter ref="J12:K21" xr:uid="{EAFDFA12-197E-4C07-BF59-7407E91EA676}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
@@ -1455,10 +1455,10 @@
         <v>22</v>
       </c>
       <c r="Q1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="R1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
@@ -1466,10 +1466,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D2" t="s">
         <v>57</v>
@@ -1522,10 +1522,10 @@
         <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -1543,7 +1543,7 @@
         <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J3" t="s">
         <v>53</v>
@@ -1578,10 +1578,10 @@
         <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
@@ -1605,10 +1605,10 @@
         <v>28</v>
       </c>
       <c r="K4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M4" t="s">
         <v>57</v>
@@ -1637,7 +1637,7 @@
         <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
@@ -1655,13 +1655,13 @@
         <v>28</v>
       </c>
       <c r="I5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L5" t="s">
         <v>24</v>
@@ -1690,10 +1690,10 @@
         <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
@@ -1746,10 +1746,10 @@
         <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D7" t="s">
         <v>24</v>
@@ -1802,10 +1802,10 @@
         <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D8" t="s">
         <v>24</v>
@@ -1861,7 +1861,7 @@
         <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D9" t="s">
         <v>24</v>
@@ -1882,7 +1882,7 @@
         <v>28</v>
       </c>
       <c r="J9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K9" t="s">
         <v>36</v>
@@ -1894,13 +1894,13 @@
         <v>29</v>
       </c>
       <c r="N9" t="s">
+        <v>197</v>
+      </c>
+      <c r="O9" t="s">
         <v>60</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>61</v>
-      </c>
-      <c r="P9" t="s">
-        <v>62</v>
       </c>
       <c r="Q9" t="s">
         <v>24</v>
@@ -1917,7 +1917,7 @@
         <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D10" t="s">
         <v>24</v>
@@ -1944,7 +1944,7 @@
         <v>28</v>
       </c>
       <c r="L10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="M10" t="s">
         <v>36</v>
@@ -1953,10 +1953,10 @@
         <v>55</v>
       </c>
       <c r="O10" t="s">
+        <v>62</v>
+      </c>
+      <c r="P10" t="s">
         <v>63</v>
-      </c>
-      <c r="P10" t="s">
-        <v>64</v>
       </c>
       <c r="Q10" t="s">
         <v>24</v>
@@ -1973,7 +1973,7 @@
         <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D11" t="s">
         <v>24</v>
@@ -2029,7 +2029,7 @@
         <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D12" t="s">
         <v>24</v>
@@ -2085,7 +2085,7 @@
         <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D13" t="s">
         <v>24</v>
@@ -2106,7 +2106,7 @@
         <v>28</v>
       </c>
       <c r="J13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K13" t="s">
         <v>57</v>
@@ -2141,7 +2141,7 @@
         <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D14" t="s">
         <v>24</v>
@@ -2162,7 +2162,7 @@
         <v>28</v>
       </c>
       <c r="J14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K14" t="s">
         <v>36</v>
@@ -2171,10 +2171,10 @@
         <v>55</v>
       </c>
       <c r="M14" t="s">
+        <v>62</v>
+      </c>
+      <c r="N14" t="s">
         <v>63</v>
-      </c>
-      <c r="N14" t="s">
-        <v>64</v>
       </c>
       <c r="O14" t="s">
         <v>24</v>
@@ -2197,7 +2197,7 @@
         <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D15" t="s">
         <v>24</v>
@@ -2215,10 +2215,10 @@
         <v>28</v>
       </c>
       <c r="I15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K15" t="s">
         <v>24</v>
@@ -2250,10 +2250,10 @@
         <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D16" t="s">
         <v>24</v>
@@ -2271,13 +2271,13 @@
         <v>29</v>
       </c>
       <c r="I16" t="s">
-        <v>60</v>
+        <v>197</v>
       </c>
       <c r="J16" t="s">
+        <v>198</v>
+      </c>
+      <c r="K16" t="s">
         <v>61</v>
-      </c>
-      <c r="K16" t="s">
-        <v>62</v>
       </c>
       <c r="L16" t="s">
         <v>24</v>
@@ -2306,10 +2306,10 @@
         <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D17" t="s">
         <v>24</v>
@@ -2327,19 +2327,19 @@
         <v>29</v>
       </c>
       <c r="I17" t="s">
-        <v>60</v>
+        <v>197</v>
       </c>
       <c r="J17" t="s">
-        <v>68</v>
+        <v>199</v>
       </c>
       <c r="K17" t="s">
         <v>24</v>
       </c>
       <c r="L17" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="M17" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="N17" t="s">
         <v>24</v>
@@ -2365,7 +2365,7 @@
         <v>49</v>
       </c>
       <c r="C18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D18" t="s">
         <v>24</v>
@@ -2383,7 +2383,7 @@
         <v>28</v>
       </c>
       <c r="I18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J18" t="s">
         <v>24</v>
@@ -2429,7 +2429,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30463D56-9A01-43E0-AC50-EEB767CD04B2}">
-  <dimension ref="A1:R23"/>
+  <dimension ref="A1:R24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2441,10 +2441,10 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C1" t="s">
         <v>37</v>
@@ -2465,22 +2465,22 @@
         <v>51</v>
       </c>
       <c r="I1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K1" t="s">
         <v>80</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>81</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>82</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>83</v>
-      </c>
-      <c r="M1" t="s">
-        <v>84</v>
-      </c>
-      <c r="N1" t="s">
-        <v>85</v>
       </c>
       <c r="O1" t="s">
         <v>45</v>
@@ -2497,7 +2497,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>
@@ -2553,7 +2553,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -2565,7 +2565,7 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F3" t="s">
         <v>24</v>
@@ -2777,7 +2777,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -2833,7 +2833,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -3001,7 +3001,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>198</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -3057,7 +3057,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -3113,7 +3113,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -3505,7 +3505,7 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B20" t="s">
         <v>24</v>
@@ -3553,7 +3553,7 @@
         <v>17</v>
       </c>
       <c r="Q20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R20" t="s">
         <v>24</v>
@@ -3617,7 +3617,7 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>197</v>
       </c>
       <c r="B22" t="s">
         <v>24</v>
@@ -3672,8 +3672,64 @@
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
-        <v>90</v>
+      <c r="A23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" t="s">
+        <v>9</v>
+      </c>
+      <c r="I23" t="s">
+        <v>9</v>
+      </c>
+      <c r="J23" t="s">
+        <v>9</v>
+      </c>
+      <c r="K23" t="s">
+        <v>9</v>
+      </c>
+      <c r="L23" t="s">
+        <v>9</v>
+      </c>
+      <c r="M23" t="s">
+        <v>9</v>
+      </c>
+      <c r="N23" t="s">
+        <v>9</v>
+      </c>
+      <c r="O23" t="s">
+        <v>9</v>
+      </c>
+      <c r="P23" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>9</v>
+      </c>
+      <c r="R23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -3714,31 +3770,31 @@
         <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="M1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="N1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
@@ -3746,25 +3802,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -3778,31 +3834,31 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G3">
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M3">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
@@ -3816,22 +3872,22 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G4">
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J4">
         <v>2</v>
       </c>
       <c r="K4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
@@ -3845,22 +3901,22 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G5">
         <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J5">
         <v>3</v>
       </c>
       <c r="K5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
@@ -3871,22 +3927,22 @@
         <v>0</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G6">
         <v>5</v>
       </c>
       <c r="H6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J6">
         <v>4</v>
       </c>
       <c r="K6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
@@ -3894,19 +3950,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G7">
         <v>6</v>
       </c>
       <c r="H7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J7">
         <v>5</v>
       </c>
       <c r="K7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
@@ -3917,28 +3973,28 @@
         <v>52</v>
       </c>
       <c r="D8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G8">
         <v>7</v>
       </c>
       <c r="H8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J8">
         <v>6</v>
       </c>
       <c r="K8" t="s">
-        <v>164</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>184</v>
+        <v>162</v>
+      </c>
+      <c r="M8" t="s">
+        <v>181</v>
       </c>
       <c r="N8" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
@@ -3952,25 +4008,25 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G9">
         <v>8</v>
       </c>
       <c r="H9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J9">
         <v>7</v>
       </c>
       <c r="K9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M9">
         <v>246</v>
       </c>
       <c r="N9" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
@@ -3984,22 +4040,22 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G10">
         <v>9</v>
       </c>
       <c r="H10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M10">
         <v>247</v>
       </c>
       <c r="N10" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
@@ -4007,25 +4063,25 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G11">
         <v>10</v>
       </c>
       <c r="H11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M11">
         <v>248</v>
       </c>
       <c r="N11" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
@@ -4033,31 +4089,31 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D12">
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G12">
         <v>11</v>
       </c>
       <c r="H12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J12" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="M12">
         <v>249</v>
       </c>
       <c r="N12" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
@@ -4071,25 +4127,25 @@
         <v>4</v>
       </c>
       <c r="E13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G13">
         <v>12</v>
       </c>
       <c r="H13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M13">
         <v>250</v>
       </c>
       <c r="N13" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
@@ -4103,25 +4159,25 @@
         <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G14">
         <v>13</v>
       </c>
       <c r="H14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J14">
         <v>1</v>
       </c>
       <c r="K14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="M14">
         <v>251</v>
       </c>
       <c r="N14" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
@@ -4129,31 +4185,31 @@
         <v>246</v>
       </c>
       <c r="B15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D15">
         <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G15">
         <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J15">
         <v>2</v>
       </c>
       <c r="K15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M15">
         <v>252</v>
       </c>
       <c r="N15" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
@@ -4161,31 +4217,31 @@
         <v>247</v>
       </c>
       <c r="B16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D16">
         <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G16">
         <v>15</v>
       </c>
       <c r="H16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J16">
         <v>3</v>
       </c>
       <c r="K16" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M16">
         <v>253</v>
       </c>
       <c r="N16" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
@@ -4193,31 +4249,31 @@
         <v>248</v>
       </c>
       <c r="B17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D17">
         <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G17">
         <v>16</v>
       </c>
       <c r="H17" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J17">
         <v>4</v>
       </c>
       <c r="K17" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M17">
         <v>254</v>
       </c>
       <c r="N17" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
@@ -4231,25 +4287,25 @@
         <v>9</v>
       </c>
       <c r="E18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G18">
         <v>17</v>
       </c>
       <c r="H18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J18">
         <v>5</v>
       </c>
       <c r="K18" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M18">
         <v>255</v>
       </c>
       <c r="N18" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
@@ -4257,28 +4313,28 @@
         <v>250</v>
       </c>
       <c r="B19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D19">
         <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G19">
         <v>18</v>
       </c>
       <c r="H19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J19">
         <v>6</v>
       </c>
       <c r="K19" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
@@ -4286,28 +4342,28 @@
         <v>251</v>
       </c>
       <c r="B20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D20">
         <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G20">
         <v>19</v>
       </c>
       <c r="H20" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J20">
         <v>7</v>
       </c>
       <c r="K20" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
@@ -4315,22 +4371,22 @@
         <v>252</v>
       </c>
       <c r="B21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D21">
         <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G21">
         <v>20</v>
       </c>
       <c r="H21" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.35">
@@ -4350,7 +4406,7 @@
         <v>21</v>
       </c>
       <c r="H22" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
@@ -4358,7 +4414,7 @@
         <v>254</v>
       </c>
       <c r="B23" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D23">
         <v>14</v>
@@ -4370,7 +4426,7 @@
         <v>22</v>
       </c>
       <c r="H23" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
@@ -4378,19 +4434,19 @@
         <v>255</v>
       </c>
       <c r="B24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D24">
         <v>15</v>
       </c>
       <c r="E24" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G24">
         <v>23</v>
       </c>
       <c r="H24" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.35">
@@ -4398,21 +4454,21 @@
         <v>24</v>
       </c>
       <c r="H25" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B26" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G26">
         <v>25</v>
       </c>
       <c r="H26" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.35">
@@ -4420,13 +4476,13 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G27">
         <v>26</v>
       </c>
       <c r="H27" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.35">
@@ -4434,13 +4490,13 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G28">
         <v>27</v>
       </c>
       <c r="H28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
@@ -4448,13 +4504,13 @@
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="G29">
         <v>28</v>
       </c>
       <c r="H29" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.35">
@@ -4462,23 +4518,23 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/Misc/SCD_Layout.xlsx
+++ b/Misc/SCD_Layout.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61733C5B-5745-4E24-9A07-FAE69B796DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63784EBB-CE82-49F9-B7B6-322AC7A97461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42210" yWindow="3270" windowWidth="28780" windowHeight="15580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5390" yWindow="4760" windowWidth="32930" windowHeight="15560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Event" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="199">
   <si>
     <t>Unknown</t>
   </si>
@@ -258,9 +258,6 @@
     <t>Move_NPC/Move_NPC_Alt</t>
   </si>
   <si>
-    <t>Unknown/Unknown_Alt</t>
-  </si>
-  <si>
     <t>Unused/Unused_Alt</t>
   </si>
   <si>
@@ -498,9 +495,6 @@
     <t>String Block 1 offset 370</t>
   </si>
   <si>
-    <t>Note:  Vorz are 26/Ooze</t>
-  </si>
-  <si>
     <t>ADD</t>
   </si>
   <si>
@@ -522,9 +516,6 @@
     <t>LSH</t>
   </si>
   <si>
-    <t>RSH</t>
-  </si>
-  <si>
     <t>OperatorSetID</t>
   </si>
   <si>
@@ -570,117 +561,93 @@
     <t>Quest</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Does </t>
-    </r>
+    <t>WorldID</t>
+  </si>
+  <si>
+    <t>WorldName</t>
+  </si>
+  <si>
+    <t>Britannia</t>
+  </si>
+  <si>
+    <t>Prison Tower</t>
+  </si>
+  <si>
+    <t>Killorn Keep</t>
+  </si>
+  <si>
+    <t>Ice Caverns</t>
+  </si>
+  <si>
+    <t>Talorus</t>
+  </si>
+  <si>
+    <t>Scintillus Academy</t>
+  </si>
+  <si>
+    <t>Tomb of Praecor Loth</t>
+  </si>
+  <si>
+    <t>Pits of Carnage</t>
+  </si>
+  <si>
+    <t>Ethereal Void</t>
+  </si>
+  <si>
+    <t>Any/All</t>
+  </si>
+  <si>
+    <t>*Only 247/250/255 used</t>
+  </si>
+  <si>
+    <t>Guessing 255 is any or all based on usage</t>
+  </si>
+  <si>
+    <t>Object¹</t>
+  </si>
+  <si>
+    <t>VariableType</t>
+  </si>
+  <si>
+    <t>Operator</t>
+  </si>
+  <si>
+    <t>Operator*</t>
+  </si>
+  <si>
+    <t>BitField*</t>
+  </si>
+  <si>
+    <t>*BitField type isn't specified but treated as a run on of the Variable (0) type</t>
+  </si>
+  <si>
+    <t>when the target variable is over 127</t>
+  </si>
+  <si>
     <r>
       <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
+        <strike/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>not</t>
+      <t>RSH</t>
     </r>
     <r>
       <rPr>
-        <i/>
-        <sz val="10"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> align with check/set traps and bit array doesn't appear to be used</t>
+      <t xml:space="preserve">  UNK</t>
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Also possible if out of range it uses that as an offset in PLAYER.DAT which </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>would</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> be in range</t>
-    </r>
-  </si>
-  <si>
-    <t>WorldID</t>
-  </si>
-  <si>
-    <t>WorldName</t>
-  </si>
-  <si>
-    <t>Britannia</t>
-  </si>
-  <si>
-    <t>Prison Tower</t>
-  </si>
-  <si>
-    <t>Killorn Keep</t>
-  </si>
-  <si>
-    <t>Ice Caverns</t>
-  </si>
-  <si>
-    <t>Talorus</t>
-  </si>
-  <si>
-    <t>Scintillus Academy</t>
-  </si>
-  <si>
-    <t>Tomb of Praecor Loth</t>
-  </si>
-  <si>
-    <t>Pits of Carnage</t>
-  </si>
-  <si>
-    <t>Ethereal Void</t>
-  </si>
-  <si>
-    <t>Any/All</t>
-  </si>
-  <si>
-    <t>*Only 247/250/255 used</t>
-  </si>
-  <si>
-    <t>Guessing 255 is any or all based on usage</t>
-  </si>
-  <si>
-    <t>though that could be the type for the out of range values on a few of them</t>
-  </si>
-  <si>
-    <t>Object¹</t>
-  </si>
-  <si>
-    <t>VariableType</t>
-  </si>
-  <si>
-    <t>Operator</t>
-  </si>
-  <si>
-    <t>Operator*</t>
+    <t>Set_Quest_Flag/Set_Quest_Flag_Alt</t>
   </si>
 </sst>
 </file>
@@ -715,9 +682,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <i/>
-      <sz val="10"/>
+      <strike/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -963,8 +929,8 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{659BEF16-E80F-4FCC-98D1-9C2C4A8B37F2}" name="VariableType" displayName="VariableType" ref="M1:N3" totalsRowShown="0">
-  <autoFilter ref="M1:N3" xr:uid="{659BEF16-E80F-4FCC-98D1-9C2C4A8B37F2}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{659BEF16-E80F-4FCC-98D1-9C2C4A8B37F2}" name="VariableType" displayName="VariableType" ref="M1:N4" totalsRowShown="0">
+  <autoFilter ref="M1:N4" xr:uid="{659BEF16-E80F-4FCC-98D1-9C2C4A8B37F2}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
@@ -977,11 +943,11 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{F978CC54-DED7-4BCA-883F-FAD374EBB21F}" name="World" displayName="World" ref="M8:N18" totalsRowShown="0">
-  <autoFilter ref="M8:N18" xr:uid="{F978CC54-DED7-4BCA-883F-FAD374EBB21F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{ADDF0D7B-B656-4DEA-B07F-03FFBEDE3867}" name="World12" displayName="World12" ref="M8:N18" totalsRowShown="0">
+  <autoFilter ref="M8:N18" xr:uid="{ADDF0D7B-B656-4DEA-B07F-03FFBEDE3867}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{0085065A-844A-42E1-BF44-960944041D85}" name="WorldID"/>
-    <tableColumn id="2" xr3:uid="{08A5B61C-B8DB-4933-B563-60ED9296E868}" name="WorldName"/>
+    <tableColumn id="1" xr3:uid="{4EF9ECFE-6508-4895-888A-13798D229E9D}" name="WorldID"/>
+    <tableColumn id="2" xr3:uid="{6DFED270-7FD4-4776-B707-E4D31AD85457}" name="WorldName"/>
   </tableColumns>
   <tableStyleInfo name="EPTableStyle" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1076,8 +1042,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{DA4450BC-89B7-47D0-B53C-68516258628D}" name="TargetType" displayName="TargetType" ref="A26:B31" totalsRowShown="0">
-  <autoFilter ref="A26:B31" xr:uid="{DA4450BC-89B7-47D0-B53C-68516258628D}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{DA4450BC-89B7-47D0-B53C-68516258628D}" name="TargetType" displayName="TargetType" ref="A26:B30" totalsRowShown="0">
+  <autoFilter ref="A26:B30" xr:uid="{DA4450BC-89B7-47D0-B53C-68516258628D}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
@@ -1104,8 +1070,8 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{D0D3EEDD-208E-4E75-AAF6-23290E91084F}" name="OperatorSet" displayName="OperatorSet" ref="J1:K10" totalsRowShown="0">
-  <autoFilter ref="J1:K10" xr:uid="{D0D3EEDD-208E-4E75-AAF6-23290E91084F}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{D0D3EEDD-208E-4E75-AAF6-23290E91084F}" name="OperatorSet" displayName="OperatorSet" ref="J1:K9" totalsRowShown="0">
+  <autoFilter ref="J1:K9" xr:uid="{D0D3EEDD-208E-4E75-AAF6-23290E91084F}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
@@ -1118,8 +1084,8 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{EAFDFA12-197E-4C07-BF59-7407E91EA676}" name="OperatorCheck" displayName="OperatorCheck" ref="J12:K21" totalsRowShown="0">
-  <autoFilter ref="J12:K21" xr:uid="{EAFDFA12-197E-4C07-BF59-7407E91EA676}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{EAFDFA12-197E-4C07-BF59-7407E91EA676}" name="OperatorCheck" displayName="OperatorCheck" ref="J12:K20" totalsRowShown="0">
+  <autoFilter ref="J12:K20" xr:uid="{EAFDFA12-197E-4C07-BF59-7407E91EA676}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
@@ -1466,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C2" t="s">
         <v>71</v>
@@ -1522,7 +1488,7 @@
         <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
         <v>71</v>
@@ -1608,7 +1574,7 @@
         <v>70</v>
       </c>
       <c r="L4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M4" t="s">
         <v>57</v>
@@ -1690,7 +1656,7 @@
         <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>198</v>
       </c>
       <c r="C6" t="s">
         <v>71</v>
@@ -1708,13 +1674,10 @@
         <v>27</v>
       </c>
       <c r="H6" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="I6" t="s">
-        <v>58</v>
-      </c>
-      <c r="J6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K6" t="s">
         <v>24</v>
@@ -1746,7 +1709,7 @@
         <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C7" t="s">
         <v>71</v>
@@ -1802,7 +1765,7 @@
         <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C8" t="s">
         <v>71</v>
@@ -1894,7 +1857,7 @@
         <v>29</v>
       </c>
       <c r="N9" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="O9" t="s">
         <v>60</v>
@@ -2271,10 +2234,10 @@
         <v>29</v>
       </c>
       <c r="I16" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="J16" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="K16" t="s">
         <v>61</v>
@@ -2327,10 +2290,10 @@
         <v>29</v>
       </c>
       <c r="I17" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="J17" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="K17" t="s">
         <v>24</v>
@@ -2441,10 +2404,10 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" t="s">
         <v>85</v>
-      </c>
-      <c r="B1" t="s">
-        <v>86</v>
       </c>
       <c r="C1" t="s">
         <v>37</v>
@@ -2465,22 +2428,22 @@
         <v>51</v>
       </c>
       <c r="I1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J1" t="s">
         <v>78</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>79</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>80</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>81</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>82</v>
-      </c>
-      <c r="N1" t="s">
-        <v>83</v>
       </c>
       <c r="O1" t="s">
         <v>45</v>
@@ -2565,7 +2528,7 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F3" t="s">
         <v>24</v>
@@ -3001,7 +2964,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -3113,7 +3076,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -3351,9 +3314,6 @@
       <c r="E17" t="s">
         <v>24</v>
       </c>
-      <c r="F17" t="s">
-        <v>14</v>
-      </c>
       <c r="G17" t="s">
         <v>24</v>
       </c>
@@ -3407,9 +3367,6 @@
       <c r="E18" t="s">
         <v>24</v>
       </c>
-      <c r="F18" t="s">
-        <v>15</v>
-      </c>
       <c r="G18" t="s">
         <v>24</v>
       </c>
@@ -3463,9 +3420,6 @@
       <c r="E19" t="s">
         <v>24</v>
       </c>
-      <c r="F19" t="s">
-        <v>16</v>
-      </c>
       <c r="G19" t="s">
         <v>24</v>
       </c>
@@ -3520,7 +3474,7 @@
         <v>24</v>
       </c>
       <c r="F20" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G20" t="s">
         <v>24</v>
@@ -3576,7 +3530,7 @@
         <v>24</v>
       </c>
       <c r="F21" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="G21" t="s">
         <v>24</v>
@@ -3617,7 +3571,7 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B22" t="s">
         <v>24</v>
@@ -3729,7 +3683,7 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -3742,7 +3696,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFAB78E5-0927-4B61-A4FF-CA1F3D12D546}">
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3770,31 +3724,31 @@
         <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" t="s">
         <v>118</v>
       </c>
-      <c r="E1" t="s">
-        <v>119</v>
-      </c>
       <c r="G1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H1" t="s">
         <v>152</v>
       </c>
-      <c r="H1" t="s">
-        <v>153</v>
-      </c>
       <c r="J1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="K1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="M1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="N1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
@@ -3802,25 +3756,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -3834,31 +3788,31 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G3">
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="M3">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
@@ -3872,22 +3826,25 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G4">
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J4">
         <v>2</v>
       </c>
       <c r="K4" t="s">
-        <v>158</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>179</v>
+        <v>156</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
@@ -3901,19 +3858,19 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G5">
         <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J5">
         <v>3</v>
       </c>
       <c r="K5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>195</v>
@@ -3927,22 +3884,22 @@
         <v>0</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G6">
         <v>5</v>
       </c>
       <c r="H6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J6">
         <v>4</v>
       </c>
       <c r="K6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
@@ -3950,20 +3907,21 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G7">
         <v>6</v>
       </c>
       <c r="H7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J7">
         <v>5</v>
       </c>
       <c r="K7" t="s">
-        <v>161</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="M7" s="2"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8">
@@ -3973,28 +3931,28 @@
         <v>52</v>
       </c>
       <c r="D8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" t="s">
         <v>112</v>
-      </c>
-      <c r="E8" t="s">
-        <v>113</v>
       </c>
       <c r="G8">
         <v>7</v>
       </c>
       <c r="H8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J8">
         <v>6</v>
       </c>
       <c r="K8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="M8" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="N8" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
@@ -4008,25 +3966,25 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G9">
         <v>8</v>
       </c>
       <c r="H9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J9">
         <v>7</v>
       </c>
       <c r="K9" t="s">
-        <v>163</v>
+        <v>197</v>
       </c>
       <c r="M9">
         <v>246</v>
       </c>
       <c r="N9" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
@@ -4040,22 +3998,22 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G10">
         <v>9</v>
       </c>
       <c r="H10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="M10">
         <v>247</v>
       </c>
       <c r="N10" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
@@ -4063,25 +4021,25 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G11">
         <v>10</v>
       </c>
       <c r="H11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M11">
         <v>248</v>
       </c>
       <c r="N11" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
@@ -4089,31 +4047,31 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D12">
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G12">
         <v>11</v>
       </c>
       <c r="H12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J12" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="K12" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="M12">
         <v>249</v>
       </c>
       <c r="N12" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
@@ -4127,25 +4085,25 @@
         <v>4</v>
       </c>
       <c r="E13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G13">
         <v>12</v>
       </c>
       <c r="H13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="M13">
         <v>250</v>
       </c>
       <c r="N13" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
@@ -4159,25 +4117,25 @@
         <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G14">
         <v>13</v>
       </c>
       <c r="H14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J14">
         <v>1</v>
       </c>
       <c r="K14" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="M14">
         <v>251</v>
       </c>
       <c r="N14" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
@@ -4185,31 +4143,31 @@
         <v>246</v>
       </c>
       <c r="B15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D15">
         <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G15">
         <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J15">
         <v>2</v>
       </c>
       <c r="K15" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="M15">
         <v>252</v>
       </c>
       <c r="N15" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
@@ -4217,31 +4175,31 @@
         <v>247</v>
       </c>
       <c r="B16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D16">
         <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G16">
         <v>15</v>
       </c>
       <c r="H16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J16">
         <v>3</v>
       </c>
       <c r="K16" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="M16">
         <v>253</v>
       </c>
       <c r="N16" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
@@ -4249,31 +4207,31 @@
         <v>248</v>
       </c>
       <c r="B17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D17">
         <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G17">
         <v>16</v>
       </c>
       <c r="H17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J17">
         <v>4</v>
       </c>
       <c r="K17" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="M17">
         <v>254</v>
       </c>
       <c r="N17" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
@@ -4287,25 +4245,25 @@
         <v>9</v>
       </c>
       <c r="E18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G18">
         <v>17</v>
       </c>
       <c r="H18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J18">
         <v>5</v>
       </c>
       <c r="K18" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="M18">
         <v>255</v>
       </c>
       <c r="N18" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
@@ -4313,28 +4271,28 @@
         <v>250</v>
       </c>
       <c r="B19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D19">
         <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G19">
         <v>18</v>
       </c>
       <c r="H19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J19">
         <v>6</v>
       </c>
       <c r="K19" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
@@ -4342,28 +4300,28 @@
         <v>251</v>
       </c>
       <c r="B20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D20">
         <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G20">
         <v>19</v>
       </c>
       <c r="H20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J20">
         <v>7</v>
       </c>
       <c r="K20" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
@@ -4371,23 +4329,24 @@
         <v>252</v>
       </c>
       <c r="B21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D21">
         <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G21">
         <v>20</v>
       </c>
       <c r="H21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>175</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="M21" s="2"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22">
@@ -4406,7 +4365,7 @@
         <v>21</v>
       </c>
       <c r="H22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
@@ -4414,7 +4373,7 @@
         <v>254</v>
       </c>
       <c r="B23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D23">
         <v>14</v>
@@ -4426,7 +4385,7 @@
         <v>22</v>
       </c>
       <c r="H23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
@@ -4434,19 +4393,19 @@
         <v>255</v>
       </c>
       <c r="B24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D24">
         <v>15</v>
       </c>
       <c r="E24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G24">
         <v>23</v>
       </c>
       <c r="H24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.35">
@@ -4454,21 +4413,21 @@
         <v>24</v>
       </c>
       <c r="H25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
+        <v>121</v>
+      </c>
+      <c r="B26" t="s">
         <v>122</v>
-      </c>
-      <c r="B26" t="s">
-        <v>123</v>
       </c>
       <c r="G26">
         <v>25</v>
       </c>
       <c r="H26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.35">
@@ -4476,13 +4435,13 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G27">
         <v>26</v>
       </c>
       <c r="H27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.35">
@@ -4490,13 +4449,13 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G28">
         <v>27</v>
       </c>
       <c r="H28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
@@ -4504,13 +4463,13 @@
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="G29">
         <v>28</v>
       </c>
       <c r="H29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.35">
@@ -4518,24 +4477,27 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>172</v>
-      </c>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Misc/SCD_Layout.xlsx
+++ b/Misc/SCD_Layout.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63784EBB-CE82-49F9-B7B6-322AC7A97461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6543A63E-B4FF-4614-82FC-0E29F7158C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5390" yWindow="4760" windowWidth="32930" windowHeight="15560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39640" yWindow="5030" windowWidth="32930" windowHeight="15560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Event" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="196">
   <si>
     <t>Unknown</t>
   </si>
@@ -201,9 +201,6 @@
     <t>TargetY</t>
   </si>
   <si>
-    <t>*Guessing</t>
-  </si>
-  <si>
     <t>Unknown1</t>
   </si>
   <si>
@@ -234,15 +231,6 @@
     <t>Variable_Check/Variable_Check_Alt</t>
   </si>
   <si>
-    <t>BloodOnDeath</t>
-  </si>
-  <si>
-    <t>BloodOnDeath* (Red)</t>
-  </si>
-  <si>
-    <t>BloodOnDeath* (Green)</t>
-  </si>
-  <si>
     <t>TargetID</t>
   </si>
   <si>
@@ -291,12 +279,6 @@
     <t>0</t>
   </si>
   <si>
-    <t>x07/x08*</t>
-  </si>
-  <si>
-    <t>*Combo</t>
-  </si>
-  <si>
     <t>Fire_Triggers/Fire_Triggers_Alt</t>
   </si>
   <si>
@@ -615,39 +597,28 @@
     <t>Operator*</t>
   </si>
   <si>
-    <t>BitField*</t>
-  </si>
-  <si>
-    <t>*BitField type isn't specified but treated as a run on of the Variable (0) type</t>
-  </si>
-  <si>
-    <t>when the target variable is over 127</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>RSH</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  UNK</t>
-    </r>
-  </si>
-  <si>
     <t>Set_Quest_Flag/Set_Quest_Flag_Alt</t>
+  </si>
+  <si>
+    <t>BitField¹</t>
+  </si>
+  <si>
+    <t>XClock²</t>
+  </si>
+  <si>
+    <t>1: BitField type isn't specified but treated as a run on of the Variable (0) type when the target variable is over 127</t>
+  </si>
+  <si>
+    <t>2: XClock type isn't specified but treated as a run on of the Quest (1) type when the target variable is over 143</t>
+  </si>
+  <si>
+    <t>CLR*</t>
+  </si>
+  <si>
+    <t>* Not sure what this is, just appears to set it to 0</t>
+  </si>
+  <si>
+    <t>* Guessing</t>
   </si>
 </sst>
 </file>
@@ -658,7 +629,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -676,14 +647,6 @@
     <font>
       <i/>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -714,7 +677,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
@@ -722,6 +685,9 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -929,8 +895,8 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{659BEF16-E80F-4FCC-98D1-9C2C4A8B37F2}" name="VariableType" displayName="VariableType" ref="M1:N4" totalsRowShown="0">
-  <autoFilter ref="M1:N4" xr:uid="{659BEF16-E80F-4FCC-98D1-9C2C4A8B37F2}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{659BEF16-E80F-4FCC-98D1-9C2C4A8B37F2}" name="VariableType" displayName="VariableType" ref="M1:N5" totalsRowShown="0">
+  <autoFilter ref="M1:N5" xr:uid="{659BEF16-E80F-4FCC-98D1-9C2C4A8B37F2}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
@@ -943,8 +909,8 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{ADDF0D7B-B656-4DEA-B07F-03FFBEDE3867}" name="World12" displayName="World12" ref="M8:N18" totalsRowShown="0">
-  <autoFilter ref="M8:N18" xr:uid="{ADDF0D7B-B656-4DEA-B07F-03FFBEDE3867}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{ADDF0D7B-B656-4DEA-B07F-03FFBEDE3867}" name="World12" displayName="World12" ref="M9:N19" totalsRowShown="0">
+  <autoFilter ref="M9:N19" xr:uid="{ADDF0D7B-B656-4DEA-B07F-03FFBEDE3867}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{4EF9ECFE-6508-4895-888A-13798D229E9D}" name="WorldID"/>
     <tableColumn id="2" xr3:uid="{6DFED270-7FD4-4776-B707-E4D31AD85457}" name="WorldName"/>
@@ -954,8 +920,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1E1E0A3D-39A7-4637-9B2E-6CFDABED7B8C}" name="ColumnList" displayName="ColumnList" ref="A1:R23" totalsRowShown="0">
-  <autoFilter ref="A1:R23" xr:uid="{1E1E0A3D-39A7-4637-9B2E-6CFDABED7B8C}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1E1E0A3D-39A7-4637-9B2E-6CFDABED7B8C}" name="ColumnList" displayName="ColumnList" ref="A1:R22" totalsRowShown="0">
+  <autoFilter ref="A1:R22" xr:uid="{1E1E0A3D-39A7-4637-9B2E-6CFDABED7B8C}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1084,8 +1050,8 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{EAFDFA12-197E-4C07-BF59-7407E91EA676}" name="OperatorCheck" displayName="OperatorCheck" ref="J12:K20" totalsRowShown="0">
-  <autoFilter ref="J12:K20" xr:uid="{EAFDFA12-197E-4C07-BF59-7407E91EA676}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{EAFDFA12-197E-4C07-BF59-7407E91EA676}" name="OperatorCheck" displayName="OperatorCheck" ref="J13:K21" totalsRowShown="0">
+  <autoFilter ref="J13:K21" xr:uid="{EAFDFA12-197E-4C07-BF59-7407E91EA676}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
@@ -1360,7 +1326,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R19"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1421,10 +1387,10 @@
         <v>22</v>
       </c>
       <c r="Q1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="R1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
@@ -1432,13 +1398,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -1488,10 +1454,10 @@
         <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -1509,7 +1475,7 @@
         <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J3" t="s">
         <v>53</v>
@@ -1544,10 +1510,10 @@
         <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
@@ -1571,13 +1537,13 @@
         <v>28</v>
       </c>
       <c r="K4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="M4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N4" t="s">
         <v>53</v>
@@ -1603,7 +1569,7 @@
         <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
@@ -1621,13 +1587,13 @@
         <v>28</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="K5" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="L5" t="s">
         <v>24</v>
@@ -1656,10 +1622,10 @@
         <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
@@ -1677,7 +1643,7 @@
         <v>29</v>
       </c>
       <c r="I6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K6" t="s">
         <v>24</v>
@@ -1709,10 +1675,10 @@
         <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D7" t="s">
         <v>24</v>
@@ -1765,10 +1731,10 @@
         <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D8" t="s">
         <v>24</v>
@@ -1824,7 +1790,7 @@
         <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D9" t="s">
         <v>24</v>
@@ -1845,7 +1811,7 @@
         <v>28</v>
       </c>
       <c r="J9" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K9" t="s">
         <v>36</v>
@@ -1857,13 +1823,13 @@
         <v>29</v>
       </c>
       <c r="N9" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="O9" t="s">
+        <v>59</v>
+      </c>
+      <c r="P9" t="s">
         <v>60</v>
-      </c>
-      <c r="P9" t="s">
-        <v>61</v>
       </c>
       <c r="Q9" t="s">
         <v>24</v>
@@ -1880,7 +1846,7 @@
         <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D10" t="s">
         <v>24</v>
@@ -1907,7 +1873,7 @@
         <v>28</v>
       </c>
       <c r="L10" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="M10" t="s">
         <v>36</v>
@@ -1916,10 +1882,10 @@
         <v>55</v>
       </c>
       <c r="O10" t="s">
+        <v>61</v>
+      </c>
+      <c r="P10" t="s">
         <v>62</v>
-      </c>
-      <c r="P10" t="s">
-        <v>63</v>
       </c>
       <c r="Q10" t="s">
         <v>24</v>
@@ -1936,7 +1902,7 @@
         <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D11" t="s">
         <v>24</v>
@@ -1954,13 +1920,13 @@
         <v>30</v>
       </c>
       <c r="I11" t="s">
+        <v>56</v>
+      </c>
+      <c r="J11" t="s">
         <v>57</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>58</v>
-      </c>
-      <c r="K11" t="s">
-        <v>59</v>
       </c>
       <c r="L11" t="s">
         <v>24</v>
@@ -1992,7 +1958,7 @@
         <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D12" t="s">
         <v>24</v>
@@ -2048,7 +2014,7 @@
         <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D13" t="s">
         <v>24</v>
@@ -2069,10 +2035,10 @@
         <v>28</v>
       </c>
       <c r="J13" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L13" t="s">
         <v>24</v>
@@ -2104,7 +2070,7 @@
         <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D14" t="s">
         <v>24</v>
@@ -2125,7 +2091,7 @@
         <v>28</v>
       </c>
       <c r="J14" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K14" t="s">
         <v>36</v>
@@ -2134,10 +2100,10 @@
         <v>55</v>
       </c>
       <c r="M14" t="s">
+        <v>61</v>
+      </c>
+      <c r="N14" t="s">
         <v>62</v>
-      </c>
-      <c r="N14" t="s">
-        <v>63</v>
       </c>
       <c r="O14" t="s">
         <v>24</v>
@@ -2160,7 +2126,7 @@
         <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D15" t="s">
         <v>24</v>
@@ -2178,10 +2144,10 @@
         <v>28</v>
       </c>
       <c r="I15" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K15" t="s">
         <v>24</v>
@@ -2213,10 +2179,10 @@
         <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C16" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D16" t="s">
         <v>24</v>
@@ -2234,13 +2200,13 @@
         <v>29</v>
       </c>
       <c r="I16" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="J16" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="K16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L16" t="s">
         <v>24</v>
@@ -2269,10 +2235,10 @@
         <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C17" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D17" t="s">
         <v>24</v>
@@ -2290,10 +2256,10 @@
         <v>29</v>
       </c>
       <c r="I17" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="J17" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="K17" t="s">
         <v>24</v>
@@ -2302,7 +2268,7 @@
         <v>24</v>
       </c>
       <c r="M17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N17" t="s">
         <v>24</v>
@@ -2328,7 +2294,7 @@
         <v>49</v>
       </c>
       <c r="C18" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D18" t="s">
         <v>24</v>
@@ -2346,7 +2312,7 @@
         <v>28</v>
       </c>
       <c r="I18" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J18" t="s">
         <v>24</v>
@@ -2378,8 +2344,24 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>56</v>
-      </c>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2392,7 +2374,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30463D56-9A01-43E0-AC50-EEB767CD04B2}">
-  <dimension ref="A1:R24"/>
+  <dimension ref="A1:R23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2404,10 +2386,10 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C1" t="s">
         <v>37</v>
@@ -2428,22 +2410,22 @@
         <v>51</v>
       </c>
       <c r="I1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M1" t="s">
         <v>77</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>78</v>
-      </c>
-      <c r="K1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L1" t="s">
-        <v>80</v>
-      </c>
-      <c r="M1" t="s">
-        <v>81</v>
-      </c>
-      <c r="N1" t="s">
-        <v>82</v>
       </c>
       <c r="O1" t="s">
         <v>45</v>
@@ -2460,7 +2442,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>
@@ -2516,128 +2498,128 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="J3" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="K3" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="L3" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M3" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="N3" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="O3" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="P3" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="Q3" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="R3" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="I4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O4" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="P4" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="Q4" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="R4" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
         <v>24</v>
@@ -2652,22 +2634,22 @@
         <v>24</v>
       </c>
       <c r="I5" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="J5" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="K5" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="L5" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="M5" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="N5" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="O5" t="s">
         <v>24</v>
@@ -2684,13 +2666,13 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
@@ -2711,7 +2693,7 @@
         <v>24</v>
       </c>
       <c r="J6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K6" t="s">
         <v>24</v>
@@ -2723,7 +2705,7 @@
         <v>24</v>
       </c>
       <c r="N6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="O6" t="s">
         <v>24</v>
@@ -2767,7 +2749,7 @@
         <v>24</v>
       </c>
       <c r="J7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K7" t="s">
         <v>24</v>
@@ -2779,7 +2761,7 @@
         <v>24</v>
       </c>
       <c r="N7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O7" t="s">
         <v>24</v>
@@ -2796,187 +2778,187 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I8" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="J8" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="K8" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="L8" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="M8" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="N8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="O8" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="P8" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="Q8" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="R8" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>186</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="G10" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="H10" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="I10" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="J10" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="K10" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="L10" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="M10" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="N10" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="O10" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="P10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="Q10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="R10" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>192</v>
+        <v>66</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F11" t="s">
         <v>24</v>
@@ -2988,10 +2970,10 @@
         <v>24</v>
       </c>
       <c r="I11" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J11" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="K11" t="s">
         <v>24</v>
@@ -3000,39 +2982,39 @@
         <v>24</v>
       </c>
       <c r="M11" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="N11" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="O11" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="P11" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="Q11" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="R11" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F12" t="s">
         <v>24</v>
@@ -3044,10 +3026,10 @@
         <v>24</v>
       </c>
       <c r="I12" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="J12" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="K12" t="s">
         <v>24</v>
@@ -3056,13 +3038,13 @@
         <v>24</v>
       </c>
       <c r="M12" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="N12" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="O12" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="P12" t="s">
         <v>24</v>
@@ -3071,24 +3053,24 @@
         <v>24</v>
       </c>
       <c r="R12" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F13" t="s">
         <v>24</v>
@@ -3100,10 +3082,10 @@
         <v>24</v>
       </c>
       <c r="I13" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="J13" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="K13" t="s">
         <v>24</v>
@@ -3112,13 +3094,13 @@
         <v>24</v>
       </c>
       <c r="M13" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N13" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="O13" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="P13" t="s">
         <v>24</v>
@@ -3127,54 +3109,54 @@
         <v>24</v>
       </c>
       <c r="R13" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
         <v>24</v>
       </c>
       <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
         <v>14</v>
       </c>
-      <c r="D14" t="s">
-        <v>16</v>
-      </c>
       <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="F14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" t="s">
-        <v>24</v>
-      </c>
       <c r="H14" t="s">
         <v>24</v>
       </c>
       <c r="I14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" t="s">
+        <v>24</v>
+      </c>
+      <c r="M14" t="s">
+        <v>24</v>
+      </c>
+      <c r="N14" t="s">
         <v>17</v>
       </c>
-      <c r="K14" t="s">
-        <v>24</v>
-      </c>
-      <c r="L14" t="s">
-        <v>24</v>
-      </c>
-      <c r="M14" t="s">
-        <v>15</v>
-      </c>
-      <c r="N14" t="s">
-        <v>15</v>
-      </c>
       <c r="O14" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="P14" t="s">
         <v>24</v>
@@ -3183,12 +3165,12 @@
         <v>24</v>
       </c>
       <c r="R14" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="B15" t="s">
         <v>24</v>
@@ -3197,7 +3179,7 @@
         <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E15" t="s">
         <v>24</v>
@@ -3206,16 +3188,16 @@
         <v>24</v>
       </c>
       <c r="G15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H15" t="s">
         <v>24</v>
       </c>
       <c r="I15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K15" t="s">
         <v>24</v>
@@ -3227,7 +3209,7 @@
         <v>24</v>
       </c>
       <c r="N15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O15" t="s">
         <v>24</v>
@@ -3244,46 +3226,43 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
       <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" t="s">
         <v>15</v>
       </c>
-      <c r="E16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" t="s">
-        <v>24</v>
-      </c>
-      <c r="I16" t="s">
-        <v>18</v>
-      </c>
-      <c r="J16" t="s">
-        <v>20</v>
-      </c>
-      <c r="K16" t="s">
-        <v>24</v>
-      </c>
       <c r="L16" t="s">
         <v>24</v>
       </c>
       <c r="M16" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="N16" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="O16" t="s">
         <v>24</v>
@@ -3303,16 +3282,16 @@
         <v>57</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E17" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G17" t="s">
         <v>24</v>
@@ -3327,13 +3306,13 @@
         <v>24</v>
       </c>
       <c r="K17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L17" t="s">
         <v>24</v>
       </c>
       <c r="M17" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="N17" t="s">
         <v>24</v>
@@ -3380,7 +3359,7 @@
         <v>24</v>
       </c>
       <c r="K18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L18" t="s">
         <v>24</v>
@@ -3406,7 +3385,7 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B19" t="s">
         <v>24</v>
@@ -3420,6 +3399,9 @@
       <c r="E19" t="s">
         <v>24</v>
       </c>
+      <c r="F19" t="s">
+        <v>15</v>
+      </c>
       <c r="G19" t="s">
         <v>24</v>
       </c>
@@ -3427,31 +3409,31 @@
         <v>24</v>
       </c>
       <c r="I19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J19" t="s">
         <v>24</v>
       </c>
       <c r="K19" t="s">
+        <v>24</v>
+      </c>
+      <c r="L19" t="s">
+        <v>24</v>
+      </c>
+      <c r="M19" t="s">
+        <v>24</v>
+      </c>
+      <c r="N19" t="s">
+        <v>24</v>
+      </c>
+      <c r="O19" t="s">
+        <v>24</v>
+      </c>
+      <c r="P19" t="s">
         <v>17</v>
       </c>
-      <c r="L19" t="s">
-        <v>24</v>
-      </c>
-      <c r="M19" t="s">
-        <v>24</v>
-      </c>
-      <c r="N19" t="s">
-        <v>24</v>
-      </c>
-      <c r="O19" t="s">
-        <v>24</v>
-      </c>
-      <c r="P19" t="s">
-        <v>24</v>
-      </c>
       <c r="Q19" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="R19" t="s">
         <v>24</v>
@@ -3459,7 +3441,7 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
         <v>24</v>
@@ -3474,7 +3456,7 @@
         <v>24</v>
       </c>
       <c r="F20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G20" t="s">
         <v>24</v>
@@ -3483,7 +3465,7 @@
         <v>24</v>
       </c>
       <c r="I20" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J20" t="s">
         <v>24</v>
@@ -3504,10 +3486,10 @@
         <v>24</v>
       </c>
       <c r="P20" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="Q20" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="R20" t="s">
         <v>24</v>
@@ -3515,7 +3497,7 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>185</v>
       </c>
       <c r="B21" t="s">
         <v>24</v>
@@ -3530,7 +3512,7 @@
         <v>24</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="G21" t="s">
         <v>24</v>
@@ -3539,7 +3521,7 @@
         <v>24</v>
       </c>
       <c r="I21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J21" t="s">
         <v>24</v>
@@ -3560,10 +3542,10 @@
         <v>24</v>
       </c>
       <c r="P21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R21" t="s">
         <v>24</v>
@@ -3571,120 +3553,62 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>191</v>
+        <v>67</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="E22" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="F22" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="G22" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="H22" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="I22" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="J22" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="K22" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="L22" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="M22" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="N22" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="O22" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="P22" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="Q22" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="R22" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>71</v>
-      </c>
-      <c r="B23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" t="s">
-        <v>9</v>
-      </c>
-      <c r="G23" t="s">
-        <v>9</v>
-      </c>
-      <c r="H23" t="s">
-        <v>9</v>
-      </c>
-      <c r="I23" t="s">
-        <v>9</v>
-      </c>
-      <c r="J23" t="s">
-        <v>9</v>
-      </c>
-      <c r="K23" t="s">
-        <v>9</v>
-      </c>
-      <c r="L23" t="s">
-        <v>9</v>
-      </c>
-      <c r="M23" t="s">
-        <v>9</v>
-      </c>
-      <c r="N23" t="s">
-        <v>9</v>
-      </c>
-      <c r="O23" t="s">
-        <v>9</v>
-      </c>
-      <c r="P23" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>9</v>
-      </c>
-      <c r="R23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
-        <v>87</v>
-      </c>
+      <c r="A23" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3724,31 +3648,31 @@
         <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G1" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="H1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="J1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="K1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="M1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="N1" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
@@ -3756,25 +3680,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -3788,31 +3712,31 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G3">
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="M3">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
@@ -3826,25 +3750,25 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G4">
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="J4">
         <v>2</v>
       </c>
       <c r="K4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="M4">
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
@@ -3858,22 +3782,25 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G5">
         <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="J5">
         <v>3</v>
       </c>
       <c r="K5" t="s">
-        <v>157</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>195</v>
+        <v>151</v>
+      </c>
+      <c r="M5">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
@@ -3884,22 +3811,22 @@
         <v>0</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="G6">
         <v>5</v>
       </c>
       <c r="H6" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="J6">
         <v>4</v>
       </c>
       <c r="K6" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
@@ -3907,21 +3834,23 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G7">
         <v>6</v>
       </c>
       <c r="H7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="J7">
         <v>5</v>
       </c>
       <c r="K7" t="s">
-        <v>159</v>
-      </c>
-      <c r="M7" s="2"/>
+        <v>153</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8">
@@ -3931,28 +3860,22 @@
         <v>52</v>
       </c>
       <c r="D8" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E8" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="G8">
         <v>7</v>
       </c>
       <c r="H8" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="J8">
         <v>6</v>
       </c>
       <c r="K8" t="s">
-        <v>160</v>
-      </c>
-      <c r="M8" t="s">
-        <v>176</v>
-      </c>
-      <c r="N8" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
@@ -3966,25 +3889,25 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="G9">
         <v>8</v>
       </c>
       <c r="H9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="J9">
         <v>7</v>
       </c>
       <c r="K9" t="s">
-        <v>197</v>
-      </c>
-      <c r="M9">
-        <v>246</v>
+        <v>193</v>
+      </c>
+      <c r="M9" t="s">
+        <v>170</v>
       </c>
       <c r="N9" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
@@ -3998,22 +3921,22 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G10">
         <v>9</v>
       </c>
       <c r="H10" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="M10">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N10" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
@@ -4021,25 +3944,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G11">
         <v>10</v>
       </c>
       <c r="H11" t="s">
-        <v>132</v>
+        <v>126</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>194</v>
       </c>
       <c r="M11">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N11" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
@@ -4047,31 +3973,25 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D12">
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="G12">
         <v>11</v>
       </c>
       <c r="H12" t="s">
-        <v>133</v>
-      </c>
-      <c r="J12" t="s">
-        <v>163</v>
-      </c>
-      <c r="K12" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="M12">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="N12" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
@@ -4085,25 +4005,25 @@
         <v>4</v>
       </c>
       <c r="E13" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G13">
         <v>12</v>
       </c>
       <c r="H13" t="s">
-        <v>134</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
+        <v>128</v>
+      </c>
+      <c r="J13" t="s">
+        <v>157</v>
       </c>
       <c r="K13" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="M13">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N13" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
@@ -4117,25 +4037,25 @@
         <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G14">
         <v>13</v>
       </c>
       <c r="H14" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="M14">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N14" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
@@ -4143,31 +4063,31 @@
         <v>246</v>
       </c>
       <c r="B15" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D15">
         <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G15">
         <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="J15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K15" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="M15">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N15" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
@@ -4175,31 +4095,31 @@
         <v>247</v>
       </c>
       <c r="B16" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D16">
         <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="G16">
         <v>15</v>
       </c>
       <c r="H16" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="J16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K16" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="M16">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N16" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
@@ -4207,31 +4127,31 @@
         <v>248</v>
       </c>
       <c r="B17" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D17">
         <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G17">
         <v>16</v>
       </c>
       <c r="H17" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="J17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K17" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="M17">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N17" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
@@ -4245,25 +4165,25 @@
         <v>9</v>
       </c>
       <c r="E18" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G18">
         <v>17</v>
       </c>
       <c r="H18" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="J18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K18" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="M18">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N18" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
@@ -4271,28 +4191,31 @@
         <v>250</v>
       </c>
       <c r="B19" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D19">
         <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G19">
         <v>18</v>
       </c>
       <c r="H19" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="J19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K19" t="s">
-        <v>165</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>188</v>
+        <v>159</v>
+      </c>
+      <c r="M19">
+        <v>255</v>
+      </c>
+      <c r="N19" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
@@ -4300,28 +4223,28 @@
         <v>251</v>
       </c>
       <c r="B20" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D20">
         <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="G20">
         <v>19</v>
       </c>
       <c r="H20" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="J20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K20" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
@@ -4329,24 +4252,29 @@
         <v>252</v>
       </c>
       <c r="B21" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D21">
         <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="G21">
         <v>20</v>
       </c>
       <c r="H21" t="s">
-        <v>142</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="M21" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="J21">
+        <v>7</v>
+      </c>
+      <c r="K21" t="s">
+        <v>159</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22">
@@ -4365,7 +4293,10 @@
         <v>21</v>
       </c>
       <c r="H22" t="s">
-        <v>143</v>
+        <v>137</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
@@ -4373,7 +4304,7 @@
         <v>254</v>
       </c>
       <c r="B23" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D23">
         <v>14</v>
@@ -4385,7 +4316,7 @@
         <v>22</v>
       </c>
       <c r="H23" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
@@ -4393,19 +4324,19 @@
         <v>255</v>
       </c>
       <c r="B24" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D24">
         <v>15</v>
       </c>
       <c r="E24" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G24">
         <v>23</v>
       </c>
       <c r="H24" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.35">
@@ -4413,21 +4344,21 @@
         <v>24</v>
       </c>
       <c r="H25" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B26" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G26">
         <v>25</v>
       </c>
       <c r="H26" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.35">
@@ -4435,13 +4366,13 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="G27">
         <v>26</v>
       </c>
       <c r="H27" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.35">
@@ -4449,13 +4380,13 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G28">
         <v>27</v>
       </c>
       <c r="H28" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
@@ -4463,13 +4394,13 @@
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="G29">
         <v>28</v>
       </c>
       <c r="H29" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.35">
@@ -4477,20 +4408,20 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">

--- a/Misc/SCD_Layout.xlsx
+++ b/Misc/SCD_Layout.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6543A63E-B4FF-4614-82FC-0E29F7158C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6410A81-20C7-461C-97C3-03EE5F4025E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39640" yWindow="5030" windowWidth="32930" windowHeight="15560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-36630" yWindow="2500" windowWidth="30480" windowHeight="15560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Event" sheetId="1" r:id="rId1"/>
@@ -111,9 +111,6 @@
     <t>LevelID</t>
   </si>
   <si>
-    <t>IsChained</t>
-  </si>
-  <si>
     <t>EventTypeID</t>
   </si>
   <si>
@@ -225,12 +222,6 @@
     <t>Attitude</t>
   </si>
   <si>
-    <t>Variable_Set/Variable_Set_Alt</t>
-  </si>
-  <si>
-    <t>Variable_Check/Variable_Check_Alt</t>
-  </si>
-  <si>
     <t>TargetID</t>
   </si>
   <si>
@@ -309,18 +300,6 @@
     <t>Set_Race_Attitude_Alt</t>
   </si>
   <si>
-    <t>Variable_Set</t>
-  </si>
-  <si>
-    <t>Variable_Set_Alt</t>
-  </si>
-  <si>
-    <t>Variable_Check</t>
-  </si>
-  <si>
-    <t>Variable_Check_Alt</t>
-  </si>
-  <si>
     <t>EventTypeName</t>
   </si>
   <si>
@@ -619,6 +598,27 @@
   </si>
   <si>
     <t>* Guessing</t>
+  </si>
+  <si>
+    <t>Check_Variable/Check_Variable_Alt</t>
+  </si>
+  <si>
+    <t>Set_Variable/Set_Variable_Alt</t>
+  </si>
+  <si>
+    <t>Set_Variable</t>
+  </si>
+  <si>
+    <t>Set_Variable_Alt</t>
+  </si>
+  <si>
+    <t>Check_Variable</t>
+  </si>
+  <si>
+    <t>Check_Variable_Alt</t>
+  </si>
+  <si>
+    <t>IsRemoved</t>
   </si>
 </sst>
 </file>
@@ -1339,7 +1339,7 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
         <v>23</v>
@@ -1387,10 +1387,10 @@
         <v>22</v>
       </c>
       <c r="Q1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
@@ -1398,22 +1398,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
       </c>
       <c r="F2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G2" t="s">
         <v>26</v>
-      </c>
-      <c r="G2" t="s">
-        <v>27</v>
       </c>
       <c r="H2" t="s">
         <v>24</v>
@@ -1451,13 +1451,13 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -1466,22 +1466,22 @@
         <v>25</v>
       </c>
       <c r="F3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G3" t="s">
         <v>26</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>27</v>
       </c>
-      <c r="H3" t="s">
-        <v>28</v>
-      </c>
       <c r="I3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" t="s">
         <v>53</v>
-      </c>
-      <c r="K3" t="s">
-        <v>54</v>
       </c>
       <c r="L3" t="s">
         <v>24</v>
@@ -1507,13 +1507,13 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
@@ -1522,31 +1522,31 @@
         <v>25</v>
       </c>
       <c r="F4" t="s">
+        <v>195</v>
+      </c>
+      <c r="G4" t="s">
         <v>26</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4" t="s">
         <v>27</v>
       </c>
-      <c r="H4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="s">
         <v>55</v>
       </c>
-      <c r="J4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" t="s">
-        <v>66</v>
-      </c>
-      <c r="L4" t="s">
-        <v>72</v>
-      </c>
-      <c r="M4" t="s">
-        <v>56</v>
-      </c>
       <c r="N4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O4" t="s">
         <v>24</v>
@@ -1563,13 +1563,13 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
@@ -1578,22 +1578,22 @@
         <v>25</v>
       </c>
       <c r="F5" t="s">
+        <v>195</v>
+      </c>
+      <c r="G5" t="s">
         <v>26</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>27</v>
       </c>
-      <c r="H5" t="s">
-        <v>28</v>
-      </c>
       <c r="I5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J5" t="s">
+        <v>55</v>
+      </c>
+      <c r="K5" t="s">
         <v>56</v>
-      </c>
-      <c r="K5" t="s">
-        <v>57</v>
       </c>
       <c r="L5" t="s">
         <v>24</v>
@@ -1619,13 +1619,13 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
@@ -1634,16 +1634,16 @@
         <v>25</v>
       </c>
       <c r="F6" t="s">
+        <v>195</v>
+      </c>
+      <c r="G6" t="s">
         <v>26</v>
       </c>
-      <c r="G6" t="s">
-        <v>27</v>
-      </c>
       <c r="H6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K6" t="s">
         <v>24</v>
@@ -1672,13 +1672,13 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D7" t="s">
         <v>24</v>
@@ -1687,16 +1687,16 @@
         <v>25</v>
       </c>
       <c r="F7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G7" t="s">
         <v>26</v>
       </c>
-      <c r="G7" t="s">
-        <v>27</v>
-      </c>
       <c r="H7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J7" t="s">
         <v>24</v>
@@ -1728,13 +1728,13 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D8" t="s">
         <v>24</v>
@@ -1743,10 +1743,10 @@
         <v>25</v>
       </c>
       <c r="F8" t="s">
+        <v>195</v>
+      </c>
+      <c r="G8" t="s">
         <v>26</v>
-      </c>
-      <c r="G8" t="s">
-        <v>27</v>
       </c>
       <c r="H8" t="s">
         <v>24</v>
@@ -1784,13 +1784,13 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
         <v>42</v>
       </c>
-      <c r="B9" t="s">
-        <v>43</v>
-      </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D9" t="s">
         <v>24</v>
@@ -1799,37 +1799,37 @@
         <v>25</v>
       </c>
       <c r="F9" t="s">
+        <v>195</v>
+      </c>
+      <c r="G9" t="s">
         <v>26</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" t="s">
         <v>27</v>
       </c>
-      <c r="H9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
+        <v>63</v>
+      </c>
+      <c r="K9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L9" t="s">
+        <v>54</v>
+      </c>
+      <c r="M9" t="s">
         <v>28</v>
       </c>
-      <c r="J9" t="s">
-        <v>66</v>
-      </c>
-      <c r="K9" t="s">
-        <v>36</v>
-      </c>
-      <c r="L9" t="s">
-        <v>55</v>
-      </c>
-      <c r="M9" t="s">
-        <v>29</v>
-      </c>
       <c r="N9" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="O9" t="s">
+        <v>58</v>
+      </c>
+      <c r="P9" t="s">
         <v>59</v>
-      </c>
-      <c r="P9" t="s">
-        <v>60</v>
       </c>
       <c r="Q9" t="s">
         <v>24</v>
@@ -1840,13 +1840,13 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" t="s">
         <v>42</v>
       </c>
-      <c r="B10" t="s">
-        <v>43</v>
-      </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D10" t="s">
         <v>24</v>
@@ -1855,37 +1855,37 @@
         <v>25</v>
       </c>
       <c r="F10" t="s">
+        <v>195</v>
+      </c>
+      <c r="G10" t="s">
         <v>26</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" t="s">
         <v>27</v>
       </c>
-      <c r="H10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" t="s">
-        <v>24</v>
-      </c>
-      <c r="K10" t="s">
-        <v>28</v>
-      </c>
       <c r="L10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O10" t="s">
+        <v>60</v>
+      </c>
+      <c r="P10" t="s">
         <v>61</v>
-      </c>
-      <c r="P10" t="s">
-        <v>62</v>
       </c>
       <c r="Q10" t="s">
         <v>24</v>
@@ -1896,13 +1896,13 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" t="s">
         <v>42</v>
       </c>
-      <c r="B11" t="s">
-        <v>43</v>
-      </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D11" t="s">
         <v>24</v>
@@ -1911,22 +1911,22 @@
         <v>25</v>
       </c>
       <c r="F11" t="s">
+        <v>195</v>
+      </c>
+      <c r="G11" t="s">
         <v>26</v>
       </c>
-      <c r="G11" t="s">
-        <v>27</v>
-      </c>
       <c r="H11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I11" t="s">
+        <v>55</v>
+      </c>
+      <c r="J11" t="s">
         <v>56</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>57</v>
-      </c>
-      <c r="K11" t="s">
-        <v>58</v>
       </c>
       <c r="L11" t="s">
         <v>24</v>
@@ -1952,13 +1952,13 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" t="s">
         <v>42</v>
       </c>
-      <c r="B12" t="s">
-        <v>43</v>
-      </c>
       <c r="C12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D12" t="s">
         <v>24</v>
@@ -1967,13 +1967,13 @@
         <v>25</v>
       </c>
       <c r="F12" t="s">
+        <v>195</v>
+      </c>
+      <c r="G12" t="s">
         <v>26</v>
       </c>
-      <c r="G12" t="s">
-        <v>27</v>
-      </c>
       <c r="H12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I12" t="s">
         <v>24</v>
@@ -2008,13 +2008,13 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
         <v>42</v>
       </c>
-      <c r="B13" t="s">
-        <v>43</v>
-      </c>
       <c r="C13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D13" t="s">
         <v>24</v>
@@ -2023,22 +2023,22 @@
         <v>25</v>
       </c>
       <c r="F13" t="s">
+        <v>195</v>
+      </c>
+      <c r="G13" t="s">
         <v>26</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" t="s">
         <v>27</v>
       </c>
-      <c r="H13" t="s">
-        <v>34</v>
-      </c>
-      <c r="I13" t="s">
-        <v>28</v>
-      </c>
       <c r="J13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L13" t="s">
         <v>24</v>
@@ -2064,13 +2064,13 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" t="s">
         <v>42</v>
       </c>
-      <c r="B14" t="s">
-        <v>43</v>
-      </c>
       <c r="C14" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D14" t="s">
         <v>24</v>
@@ -2079,31 +2079,31 @@
         <v>25</v>
       </c>
       <c r="F14" t="s">
+        <v>195</v>
+      </c>
+      <c r="G14" t="s">
         <v>26</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" t="s">
         <v>27</v>
       </c>
-      <c r="H14" t="s">
+      <c r="J14" t="s">
+        <v>63</v>
+      </c>
+      <c r="K14" t="s">
         <v>35</v>
       </c>
-      <c r="I14" t="s">
-        <v>28</v>
-      </c>
-      <c r="J14" t="s">
-        <v>66</v>
-      </c>
-      <c r="K14" t="s">
-        <v>36</v>
-      </c>
       <c r="L14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M14" t="s">
+        <v>60</v>
+      </c>
+      <c r="N14" t="s">
         <v>61</v>
-      </c>
-      <c r="N14" t="s">
-        <v>62</v>
       </c>
       <c r="O14" t="s">
         <v>24</v>
@@ -2120,13 +2120,13 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
         <v>45</v>
       </c>
-      <c r="B15" t="s">
-        <v>46</v>
-      </c>
       <c r="C15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D15" t="s">
         <v>24</v>
@@ -2135,19 +2135,19 @@
         <v>25</v>
       </c>
       <c r="F15" t="s">
+        <v>195</v>
+      </c>
+      <c r="G15" t="s">
         <v>26</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>27</v>
       </c>
-      <c r="H15" t="s">
-        <v>28</v>
-      </c>
       <c r="I15" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K15" t="s">
         <v>24</v>
@@ -2176,13 +2176,13 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
+        <v>190</v>
+      </c>
+      <c r="C16" t="s">
         <v>64</v>
-      </c>
-      <c r="C16" t="s">
-        <v>67</v>
       </c>
       <c r="D16" t="s">
         <v>24</v>
@@ -2191,22 +2191,22 @@
         <v>25</v>
       </c>
       <c r="F16" t="s">
+        <v>195</v>
+      </c>
+      <c r="G16" t="s">
         <v>26</v>
       </c>
-      <c r="G16" t="s">
-        <v>27</v>
-      </c>
       <c r="H16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I16" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="J16" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="K16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L16" t="s">
         <v>24</v>
@@ -2232,13 +2232,13 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>189</v>
       </c>
       <c r="C17" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D17" t="s">
         <v>24</v>
@@ -2247,19 +2247,19 @@
         <v>25</v>
       </c>
       <c r="F17" t="s">
+        <v>195</v>
+      </c>
+      <c r="G17" t="s">
         <v>26</v>
       </c>
-      <c r="G17" t="s">
-        <v>27</v>
-      </c>
       <c r="H17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I17" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="J17" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="K17" t="s">
         <v>24</v>
@@ -2268,7 +2268,7 @@
         <v>24</v>
       </c>
       <c r="M17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N17" t="s">
         <v>24</v>
@@ -2288,13 +2288,13 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" t="s">
         <v>48</v>
       </c>
-      <c r="B18" t="s">
-        <v>49</v>
-      </c>
       <c r="C18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D18" t="s">
         <v>24</v>
@@ -2303,16 +2303,16 @@
         <v>25</v>
       </c>
       <c r="F18" t="s">
+        <v>195</v>
+      </c>
+      <c r="G18" t="s">
         <v>26</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>27</v>
       </c>
-      <c r="H18" t="s">
-        <v>28</v>
-      </c>
       <c r="I18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J18" t="s">
         <v>24</v>
@@ -2344,7 +2344,7 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.35">
@@ -2386,63 +2386,63 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
         <v>37</v>
       </c>
-      <c r="D1" t="s">
-        <v>38</v>
-      </c>
       <c r="E1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" t="s">
         <v>40</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>50</v>
       </c>
-      <c r="G1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" t="s">
-        <v>51</v>
-      </c>
       <c r="I1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L1" t="s">
         <v>73</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>74</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>75</v>
       </c>
-      <c r="L1" t="s">
-        <v>76</v>
-      </c>
-      <c r="M1" t="s">
-        <v>77</v>
-      </c>
-      <c r="N1" t="s">
-        <v>78</v>
-      </c>
       <c r="O1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R1" t="s">
         <v>47</v>
-      </c>
-      <c r="R1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>
@@ -2498,7 +2498,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
@@ -2554,7 +2554,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -2610,7 +2610,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -2666,7 +2666,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -2722,7 +2722,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -2778,7 +2778,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>195</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -2890,7 +2890,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -2946,7 +2946,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -3002,7 +3002,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -3058,7 +3058,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -3114,7 +3114,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
         <v>24</v>
@@ -3170,7 +3170,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s">
         <v>24</v>
@@ -3226,7 +3226,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s">
         <v>10</v>
@@ -3279,7 +3279,7 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s">
         <v>24</v>
@@ -3332,7 +3332,7 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B18" t="s">
         <v>24</v>
@@ -3385,7 +3385,7 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B19" t="s">
         <v>24</v>
@@ -3441,7 +3441,7 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
         <v>24</v>
@@ -3497,7 +3497,7 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B21" t="s">
         <v>24</v>
@@ -3553,7 +3553,7 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B22" t="s">
         <v>9</v>
@@ -3645,34 +3645,34 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="H1" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="J1" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="K1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="M1" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="N1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
@@ -3680,31 +3680,31 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
@@ -3712,31 +3712,31 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G3">
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="M3">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
@@ -3750,25 +3750,25 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="G4">
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="J4">
         <v>2</v>
       </c>
       <c r="K4" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="M4">
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
@@ -3782,25 +3782,25 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="G5">
         <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="J5">
         <v>3</v>
       </c>
       <c r="K5" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="M5">
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
@@ -3811,22 +3811,22 @@
         <v>0</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G6">
         <v>5</v>
       </c>
       <c r="H6" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="J6">
         <v>4</v>
       </c>
       <c r="K6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
@@ -3834,22 +3834,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G7">
         <v>6</v>
       </c>
       <c r="H7" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="J7">
         <v>5</v>
       </c>
       <c r="K7" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
@@ -3857,25 +3857,25 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E8" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="G8">
         <v>7</v>
       </c>
       <c r="H8" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="J8">
         <v>6</v>
       </c>
       <c r="K8" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
@@ -3889,25 +3889,25 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="G9">
         <v>8</v>
       </c>
       <c r="H9" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="J9">
         <v>7</v>
       </c>
       <c r="K9" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="M9" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="N9" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
@@ -3921,22 +3921,22 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="G10">
         <v>9</v>
       </c>
       <c r="H10" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="M10">
         <v>246</v>
       </c>
       <c r="N10" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
@@ -3944,28 +3944,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>92</v>
+        <v>191</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="G11">
         <v>10</v>
       </c>
       <c r="H11" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="M11">
         <v>247</v>
       </c>
       <c r="N11" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
@@ -3973,25 +3973,25 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>94</v>
+        <v>193</v>
       </c>
       <c r="D12">
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="G12">
         <v>11</v>
       </c>
       <c r="H12" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="M12">
         <v>248</v>
       </c>
       <c r="N12" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
@@ -4005,25 +4005,25 @@
         <v>4</v>
       </c>
       <c r="E13" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="G13">
         <v>12</v>
       </c>
       <c r="H13" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="J13" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="K13" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="M13">
         <v>249</v>
       </c>
       <c r="N13" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
@@ -4037,25 +4037,25 @@
         <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G14">
         <v>13</v>
       </c>
       <c r="H14" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="M14">
         <v>250</v>
       </c>
       <c r="N14" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
@@ -4063,31 +4063,31 @@
         <v>246</v>
       </c>
       <c r="B15" t="s">
-        <v>95</v>
+        <v>194</v>
       </c>
       <c r="D15">
         <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="G15">
         <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="J15">
         <v>1</v>
       </c>
       <c r="K15" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="M15">
         <v>251</v>
       </c>
       <c r="N15" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
@@ -4095,31 +4095,31 @@
         <v>247</v>
       </c>
       <c r="B16" t="s">
-        <v>93</v>
+        <v>192</v>
       </c>
       <c r="D16">
         <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="G16">
         <v>15</v>
       </c>
       <c r="H16" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="J16">
         <v>2</v>
       </c>
       <c r="K16" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="M16">
         <v>252</v>
       </c>
       <c r="N16" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
@@ -4127,31 +4127,31 @@
         <v>248</v>
       </c>
       <c r="B17" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D17">
         <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="G17">
         <v>16</v>
       </c>
       <c r="H17" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="J17">
         <v>3</v>
       </c>
       <c r="K17" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="M17">
         <v>253</v>
       </c>
       <c r="N17" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
@@ -4165,25 +4165,25 @@
         <v>9</v>
       </c>
       <c r="E18" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G18">
         <v>17</v>
       </c>
       <c r="H18" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="J18">
         <v>4</v>
       </c>
       <c r="K18" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="M18">
         <v>254</v>
       </c>
       <c r="N18" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
@@ -4191,31 +4191,31 @@
         <v>250</v>
       </c>
       <c r="B19" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D19">
         <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="G19">
         <v>18</v>
       </c>
       <c r="H19" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="J19">
         <v>5</v>
       </c>
       <c r="K19" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="M19">
         <v>255</v>
       </c>
       <c r="N19" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
@@ -4223,28 +4223,28 @@
         <v>251</v>
       </c>
       <c r="B20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D20">
         <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="G20">
         <v>19</v>
       </c>
       <c r="H20" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="J20">
         <v>6</v>
       </c>
       <c r="K20" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
@@ -4252,28 +4252,28 @@
         <v>252</v>
       </c>
       <c r="B21" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D21">
         <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="G21">
         <v>20</v>
       </c>
       <c r="H21" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="J21">
         <v>7</v>
       </c>
       <c r="K21" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.35">
@@ -4293,10 +4293,10 @@
         <v>21</v>
       </c>
       <c r="H22" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
@@ -4304,7 +4304,7 @@
         <v>254</v>
       </c>
       <c r="B23" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D23">
         <v>14</v>
@@ -4316,7 +4316,7 @@
         <v>22</v>
       </c>
       <c r="H23" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
@@ -4324,19 +4324,19 @@
         <v>255</v>
       </c>
       <c r="B24" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D24">
         <v>15</v>
       </c>
       <c r="E24" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="G24">
         <v>23</v>
       </c>
       <c r="H24" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.35">
@@ -4344,21 +4344,21 @@
         <v>24</v>
       </c>
       <c r="H25" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B26" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="G26">
         <v>25</v>
       </c>
       <c r="H26" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.35">
@@ -4366,13 +4366,13 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="G27">
         <v>26</v>
       </c>
       <c r="H27" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.35">
@@ -4380,13 +4380,13 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G28">
         <v>27</v>
       </c>
       <c r="H28" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
@@ -4394,13 +4394,13 @@
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="G29">
         <v>28</v>
       </c>
       <c r="H29" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.35">
@@ -4408,20 +4408,20 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
